--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.033516</v>
+        <v>4.300877666666666</v>
       </c>
       <c r="H2">
-        <v>18.100548</v>
+        <v>12.902633</v>
       </c>
       <c r="I2">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="J2">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.77583066666667</v>
+        <v>18.95273633333333</v>
       </c>
       <c r="N2">
-        <v>44.327492</v>
+        <v>56.858209</v>
       </c>
       <c r="O2">
-        <v>0.08021112995490694</v>
+        <v>0.08721078561875104</v>
       </c>
       <c r="P2">
-        <v>0.08021112995490692</v>
+        <v>0.08721078561875105</v>
       </c>
       <c r="Q2">
-        <v>89.15021074062399</v>
+        <v>81.51340041825519</v>
       </c>
       <c r="R2">
-        <v>802.351896665616</v>
+        <v>733.6206037642968</v>
       </c>
       <c r="S2">
-        <v>0.003104324232291575</v>
+        <v>0.003542243295943968</v>
       </c>
       <c r="T2">
-        <v>0.003104324232291575</v>
+        <v>0.003542243295943969</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.033516</v>
+        <v>4.300877666666666</v>
       </c>
       <c r="H3">
-        <v>18.100548</v>
+        <v>12.902633</v>
       </c>
       <c r="I3">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="J3">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>31.63458</v>
       </c>
       <c r="O3">
-        <v>0.05724315301774574</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="P3">
-        <v>0.05724315301774573</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="Q3">
-        <v>63.62258152776</v>
+        <v>45.35215287212666</v>
       </c>
       <c r="R3">
-        <v>572.60323374984</v>
+        <v>408.16937584914</v>
       </c>
       <c r="S3">
-        <v>0.002215419570147718</v>
+        <v>0.001970821467925645</v>
       </c>
       <c r="T3">
-        <v>0.002215419570147718</v>
+        <v>0.001970821467925645</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.033516</v>
+        <v>4.300877666666666</v>
       </c>
       <c r="H4">
-        <v>18.100548</v>
+        <v>12.902633</v>
       </c>
       <c r="I4">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="J4">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.4849</v>
+        <v>101.4555613333333</v>
       </c>
       <c r="N4">
-        <v>187.4547</v>
+        <v>304.366684</v>
       </c>
       <c r="O4">
-        <v>0.3392015343967147</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="P4">
-        <v>0.3392015343967146</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="Q4">
-        <v>377.0036439084</v>
+        <v>436.3479578976635</v>
       </c>
       <c r="R4">
-        <v>3393.0327951756</v>
+        <v>3927.131621078972</v>
       </c>
       <c r="S4">
-        <v>0.01312774852380432</v>
+        <v>0.018961920624473</v>
       </c>
       <c r="T4">
-        <v>0.01312774852380432</v>
+        <v>0.018961920624473</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.033516</v>
+        <v>4.300877666666666</v>
       </c>
       <c r="H5">
-        <v>18.100548</v>
+        <v>12.902633</v>
       </c>
       <c r="I5">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="J5">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.984323333333333</v>
+        <v>2.410466333333333</v>
       </c>
       <c r="N5">
-        <v>5.952970000000001</v>
+        <v>7.231399000000001</v>
       </c>
       <c r="O5">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="P5">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="Q5">
-        <v>11.97244658084</v>
+        <v>10.36712081928522</v>
       </c>
       <c r="R5">
-        <v>107.75201922756</v>
+        <v>93.30408737356699</v>
       </c>
       <c r="S5">
-        <v>0.0004168958854045877</v>
+        <v>0.0004505132166235823</v>
       </c>
       <c r="T5">
-        <v>0.0004168958854045877</v>
+        <v>0.0004505132166235824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.033516</v>
+        <v>4.300877666666666</v>
       </c>
       <c r="H6">
-        <v>18.100548</v>
+        <v>12.902633</v>
       </c>
       <c r="I6">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="J6">
-        <v>0.03870191373736741</v>
+        <v>0.04061703229494078</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>94.42181166666667</v>
+        <v>83.95738966666666</v>
       </c>
       <c r="N6">
-        <v>283.265435</v>
+        <v>251.872169</v>
       </c>
       <c r="O6">
-        <v>0.512572211811989</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="P6">
-        <v>0.5125722118119889</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="Q6">
-        <v>569.6955114398199</v>
+        <v>361.0904621689973</v>
       </c>
       <c r="R6">
-        <v>5127.25960295838</v>
+        <v>3249.814159520976</v>
       </c>
       <c r="S6">
-        <v>0.01983752552571921</v>
+        <v>0.01569153368997458</v>
       </c>
       <c r="T6">
-        <v>0.01983752552571921</v>
+        <v>0.01569153368997459</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.063288</v>
       </c>
       <c r="I7">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="J7">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.77583066666667</v>
+        <v>18.95273633333333</v>
       </c>
       <c r="N7">
-        <v>44.327492</v>
+        <v>56.858209</v>
       </c>
       <c r="O7">
-        <v>0.08021112995490694</v>
+        <v>0.08721078561875104</v>
       </c>
       <c r="P7">
-        <v>0.08021112995490692</v>
+        <v>0.08721078561875105</v>
       </c>
       <c r="Q7">
-        <v>5.236987812632888</v>
+        <v>6.717405703465777</v>
       </c>
       <c r="R7">
-        <v>47.132890313696</v>
+        <v>60.45665133119199</v>
       </c>
       <c r="S7">
-        <v>0.0001823586061761691</v>
+        <v>0.0002919113323348553</v>
       </c>
       <c r="T7">
-        <v>0.000182358606176169</v>
+        <v>0.0002919113323348553</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.063288</v>
       </c>
       <c r="I8">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="J8">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>31.63458</v>
       </c>
       <c r="O8">
-        <v>0.05724315301774574</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="P8">
-        <v>0.05724315301774573</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="Q8">
         <v>3.737407699893333</v>
@@ -948,10 +948,10 @@
         <v>33.63666929904</v>
       </c>
       <c r="S8">
-        <v>0.0001301413108544132</v>
+        <v>0.0001624126499597194</v>
       </c>
       <c r="T8">
-        <v>0.0001301413108544132</v>
+        <v>0.0001624126499597194</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.063288</v>
       </c>
       <c r="I9">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="J9">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.4849</v>
+        <v>101.4555613333333</v>
       </c>
       <c r="N9">
-        <v>187.4547</v>
+        <v>304.366684</v>
       </c>
       <c r="O9">
-        <v>0.3392015343967147</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="P9">
-        <v>0.3392015343967146</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="Q9">
-        <v>22.1464814504</v>
+        <v>35.95882696633245</v>
       </c>
       <c r="R9">
-        <v>199.3183330536</v>
+        <v>323.629442696992</v>
       </c>
       <c r="S9">
-        <v>0.0007711687774524199</v>
+        <v>0.001562625446833577</v>
       </c>
       <c r="T9">
-        <v>0.0007711687774524197</v>
+        <v>0.001562625446833577</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.063288</v>
       </c>
       <c r="I10">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="J10">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.984323333333333</v>
+        <v>2.410466333333333</v>
       </c>
       <c r="N10">
-        <v>5.952970000000001</v>
+        <v>7.231399000000001</v>
       </c>
       <c r="O10">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="P10">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="Q10">
-        <v>0.7033023961511111</v>
+        <v>0.8543399755457778</v>
       </c>
       <c r="R10">
-        <v>6.329721565360001</v>
+        <v>7.689059779912001</v>
       </c>
       <c r="S10">
-        <v>2.448988794151831E-05</v>
+        <v>3.712616619237761E-05</v>
       </c>
       <c r="T10">
-        <v>2.44898879415183E-05</v>
+        <v>3.712616619237761E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.063288</v>
       </c>
       <c r="I11">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="J11">
-        <v>0.002273482573786049</v>
+        <v>0.003347193013613811</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>94.42181166666667</v>
+        <v>83.95738966666666</v>
       </c>
       <c r="N11">
-        <v>283.265435</v>
+        <v>251.872169</v>
       </c>
       <c r="O11">
-        <v>0.512572211811989</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="P11">
-        <v>0.5125722118119889</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="Q11">
-        <v>33.46585976114222</v>
+        <v>29.75696164796355</v>
       </c>
       <c r="R11">
-        <v>301.19273785028</v>
+        <v>267.812654831672</v>
       </c>
       <c r="S11">
-        <v>0.001165323991361528</v>
+        <v>0.001293117418293282</v>
       </c>
       <c r="T11">
-        <v>0.001165323991361528</v>
+        <v>0.001293117418293282</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>65.44186166666667</v>
+        <v>61.65203333333333</v>
       </c>
       <c r="H12">
-        <v>196.325585</v>
+        <v>184.9561</v>
       </c>
       <c r="I12">
-        <v>0.4197760120361104</v>
+        <v>0.582235260574047</v>
       </c>
       <c r="J12">
-        <v>0.4197760120361104</v>
+        <v>0.5822352605740471</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.77583066666667</v>
+        <v>18.95273633333333</v>
       </c>
       <c r="N12">
-        <v>44.327492</v>
+        <v>56.858209</v>
       </c>
       <c r="O12">
-        <v>0.08021112995490694</v>
+        <v>0.08721078561875104</v>
       </c>
       <c r="P12">
-        <v>0.08021112995490692</v>
+        <v>0.08721078561875105</v>
       </c>
       <c r="Q12">
-        <v>966.9578664980911</v>
+        <v>1168.474732180544</v>
       </c>
       <c r="R12">
-        <v>8702.62079848282</v>
+        <v>10516.2725896249</v>
       </c>
       <c r="S12">
-        <v>0.03367070825338103</v>
+        <v>0.05077719448960086</v>
       </c>
       <c r="T12">
-        <v>0.03367070825338103</v>
+        <v>0.05077719448960087</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>65.44186166666667</v>
+        <v>61.65203333333333</v>
       </c>
       <c r="H13">
-        <v>196.325585</v>
+        <v>184.9561</v>
       </c>
       <c r="I13">
-        <v>0.4197760120361104</v>
+        <v>0.582235260574047</v>
       </c>
       <c r="J13">
-        <v>0.4197760120361104</v>
+        <v>0.5822352605740471</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>31.63458</v>
       </c>
       <c r="O13">
-        <v>0.05724315301774574</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="P13">
-        <v>0.05724315301774573</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="Q13">
-        <v>690.0752694143666</v>
+        <v>650.1120602153333</v>
       </c>
       <c r="R13">
-        <v>6210.6774247293</v>
+        <v>5851.008541937999</v>
       </c>
       <c r="S13">
-        <v>0.02402930249016214</v>
+        <v>0.02825124550189117</v>
       </c>
       <c r="T13">
-        <v>0.02402930249016214</v>
+        <v>0.02825124550189117</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>65.44186166666667</v>
+        <v>61.65203333333333</v>
       </c>
       <c r="H14">
-        <v>196.325585</v>
+        <v>184.9561</v>
       </c>
       <c r="I14">
-        <v>0.4197760120361104</v>
+        <v>0.582235260574047</v>
       </c>
       <c r="J14">
-        <v>0.4197760120361104</v>
+        <v>0.5822352605740471</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.4849</v>
+        <v>101.4555613333333</v>
       </c>
       <c r="N14">
-        <v>187.4547</v>
+        <v>304.366684</v>
       </c>
       <c r="O14">
-        <v>0.3392015343967147</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="P14">
-        <v>0.3392015343967146</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="Q14">
-        <v>4089.1281820555</v>
+        <v>6254.941649174711</v>
       </c>
       <c r="R14">
-        <v>36802.1536384995</v>
+        <v>56294.4748425724</v>
       </c>
       <c r="S14">
-        <v>0.1423886673855824</v>
+        <v>0.2718145115971361</v>
       </c>
       <c r="T14">
-        <v>0.1423886673855824</v>
+        <v>0.2718145115971362</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>65.44186166666667</v>
+        <v>61.65203333333333</v>
       </c>
       <c r="H15">
-        <v>196.325585</v>
+        <v>184.9561</v>
       </c>
       <c r="I15">
-        <v>0.4197760120361104</v>
+        <v>0.582235260574047</v>
       </c>
       <c r="J15">
-        <v>0.4197760120361104</v>
+        <v>0.5822352605740471</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.984323333333333</v>
+        <v>2.410466333333333</v>
       </c>
       <c r="N15">
-        <v>5.952970000000001</v>
+        <v>7.231399000000001</v>
       </c>
       <c r="O15">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="P15">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="Q15">
-        <v>129.8578130819389</v>
+        <v>148.6101507315444</v>
       </c>
       <c r="R15">
-        <v>1168.72031773745</v>
+        <v>1337.4913565839</v>
       </c>
       <c r="S15">
-        <v>0.004521814952019611</v>
+        <v>0.006457997181284856</v>
       </c>
       <c r="T15">
-        <v>0.00452181495201961</v>
+        <v>0.006457997181284857</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>65.44186166666667</v>
+        <v>61.65203333333333</v>
       </c>
       <c r="H16">
-        <v>196.325585</v>
+        <v>184.9561</v>
       </c>
       <c r="I16">
-        <v>0.4197760120361104</v>
+        <v>0.582235260574047</v>
       </c>
       <c r="J16">
-        <v>0.4197760120361104</v>
+        <v>0.5822352605740471</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>94.42181166666667</v>
+        <v>83.95738966666666</v>
       </c>
       <c r="N16">
-        <v>283.265435</v>
+        <v>251.872169</v>
       </c>
       <c r="O16">
-        <v>0.512572211811989</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="P16">
-        <v>0.5125722118119889</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="Q16">
-        <v>6179.139137406053</v>
+        <v>5176.143786308988</v>
       </c>
       <c r="R16">
-        <v>55612.25223665448</v>
+        <v>46585.2940767809</v>
       </c>
       <c r="S16">
-        <v>0.2151655189549652</v>
+        <v>0.224934311804134</v>
       </c>
       <c r="T16">
-        <v>0.2151655189549652</v>
+        <v>0.224934311804134</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.134262</v>
+        <v>0.10468</v>
       </c>
       <c r="H17">
-        <v>0.402786</v>
+        <v>0.31404</v>
       </c>
       <c r="I17">
-        <v>0.0008612219379556502</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="J17">
-        <v>0.0008612219379556503</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.77583066666667</v>
+        <v>18.95273633333333</v>
       </c>
       <c r="N17">
-        <v>44.327492</v>
+        <v>56.858209</v>
       </c>
       <c r="O17">
-        <v>0.08021112995490694</v>
+        <v>0.08721078561875104</v>
       </c>
       <c r="P17">
-        <v>0.08021112995490692</v>
+        <v>0.08721078561875105</v>
       </c>
       <c r="Q17">
-        <v>1.983832576968</v>
+        <v>1.983972439373333</v>
       </c>
       <c r="R17">
-        <v>17.854493192712</v>
+        <v>17.85575195436</v>
       </c>
       <c r="S17">
-        <v>6.907958478537746E-05</v>
+        <v>8.621543251352216E-05</v>
       </c>
       <c r="T17">
-        <v>6.907958478537745E-05</v>
+        <v>8.621543251352218E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.134262</v>
+        <v>0.10468</v>
       </c>
       <c r="H18">
-        <v>0.402786</v>
+        <v>0.31404</v>
       </c>
       <c r="I18">
-        <v>0.0008612219379556502</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="J18">
-        <v>0.0008612219379556503</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>31.63458</v>
       </c>
       <c r="O18">
-        <v>0.05724315301774574</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="P18">
-        <v>0.05724315301774573</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="Q18">
-        <v>1.41577399332</v>
+        <v>1.1038359448</v>
       </c>
       <c r="R18">
-        <v>12.74196593988</v>
+        <v>9.934523503199999</v>
       </c>
       <c r="S18">
-        <v>4.929905917663481E-05</v>
+        <v>4.796825375001908E-05</v>
       </c>
       <c r="T18">
-        <v>4.929905917663481E-05</v>
+        <v>4.796825375001908E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.134262</v>
+        <v>0.10468</v>
       </c>
       <c r="H19">
-        <v>0.402786</v>
+        <v>0.31404</v>
       </c>
       <c r="I19">
-        <v>0.0008612219379556502</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="J19">
-        <v>0.0008612219379556503</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>62.4849</v>
+        <v>101.4555613333333</v>
       </c>
       <c r="N19">
-        <v>187.4547</v>
+        <v>304.366684</v>
       </c>
       <c r="O19">
-        <v>0.3392015343967147</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="P19">
-        <v>0.3392015343967146</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="Q19">
-        <v>8.389347643800001</v>
+        <v>10.62036816037333</v>
       </c>
       <c r="R19">
-        <v>75.5041287942</v>
+        <v>95.58331344336</v>
       </c>
       <c r="S19">
-        <v>0.0002921278028106688</v>
+        <v>0.000461518323656071</v>
       </c>
       <c r="T19">
-        <v>0.0002921278028106687</v>
+        <v>0.000461518323656071</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.134262</v>
+        <v>0.10468</v>
       </c>
       <c r="H20">
-        <v>0.402786</v>
+        <v>0.31404</v>
       </c>
       <c r="I20">
-        <v>0.0008612219379556502</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="J20">
-        <v>0.0008612219379556503</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.984323333333333</v>
+        <v>2.410466333333333</v>
       </c>
       <c r="N20">
-        <v>5.952970000000001</v>
+        <v>7.231399000000001</v>
       </c>
       <c r="O20">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="P20">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="Q20">
-        <v>0.26641921938</v>
+        <v>0.2523276157733333</v>
       </c>
       <c r="R20">
-        <v>2.39777297442</v>
+        <v>2.27094854196</v>
       </c>
       <c r="S20">
-        <v>9.277057584034046E-06</v>
+        <v>1.096513948342713E-05</v>
       </c>
       <c r="T20">
-        <v>9.277057584034046E-06</v>
+        <v>1.096513948342713E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.134262</v>
+        <v>0.10468</v>
       </c>
       <c r="H21">
-        <v>0.402786</v>
+        <v>0.31404</v>
       </c>
       <c r="I21">
-        <v>0.0008612219379556502</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="J21">
-        <v>0.0008612219379556503</v>
+        <v>0.0009885868118471018</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>94.42181166666667</v>
+        <v>83.95738966666666</v>
       </c>
       <c r="N21">
-        <v>283.265435</v>
+        <v>251.872169</v>
       </c>
       <c r="O21">
-        <v>0.512572211811989</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="P21">
-        <v>0.5125722118119889</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="Q21">
-        <v>12.67726127799</v>
+        <v>8.788659550306665</v>
       </c>
       <c r="R21">
-        <v>114.09535150191</v>
+        <v>79.09793595276</v>
       </c>
       <c r="S21">
-        <v>0.0004414384335989352</v>
+        <v>0.0003819196624440624</v>
       </c>
       <c r="T21">
-        <v>0.0004414384335989351</v>
+        <v>0.0003819196624440624</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>83.93302799999999</v>
+        <v>39.47650533333334</v>
       </c>
       <c r="H22">
-        <v>251.799084</v>
+        <v>118.429516</v>
       </c>
       <c r="I22">
-        <v>0.5383873697147804</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="J22">
-        <v>0.5383873697147805</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.77583066666667</v>
+        <v>18.95273633333333</v>
       </c>
       <c r="N22">
-        <v>44.327492</v>
+        <v>56.858209</v>
       </c>
       <c r="O22">
-        <v>0.08021112995490694</v>
+        <v>0.08721078561875104</v>
       </c>
       <c r="P22">
-        <v>0.08021112995490692</v>
+        <v>0.08721078561875105</v>
       </c>
       <c r="Q22">
-        <v>1240.180209068592</v>
+        <v>748.1877969440937</v>
       </c>
       <c r="R22">
-        <v>11161.62188161733</v>
+        <v>6733.690172496844</v>
       </c>
       <c r="S22">
-        <v>0.04318465927827278</v>
+        <v>0.03251322106835783</v>
       </c>
       <c r="T22">
-        <v>0.04318465927827278</v>
+        <v>0.03251322106835784</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>83.93302799999999</v>
+        <v>39.47650533333334</v>
       </c>
       <c r="H23">
-        <v>251.799084</v>
+        <v>118.429516</v>
       </c>
       <c r="I23">
-        <v>0.5383873697147804</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="J23">
-        <v>0.5383873697147805</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>31.63458</v>
       </c>
       <c r="O23">
-        <v>0.05724315301774574</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="P23">
-        <v>0.05724315301774573</v>
+        <v>0.04852204497892696</v>
       </c>
       <c r="Q23">
-        <v>885.06202963608</v>
+        <v>416.2742220292533</v>
       </c>
       <c r="R23">
-        <v>7965.55826672472</v>
+        <v>3746.46799826328</v>
       </c>
       <c r="S23">
-        <v>0.03081899058740482</v>
+        <v>0.01808959710540041</v>
       </c>
       <c r="T23">
-        <v>0.03081899058740482</v>
+        <v>0.01808959710540041</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>83.93302799999999</v>
+        <v>39.47650533333334</v>
       </c>
       <c r="H24">
-        <v>251.799084</v>
+        <v>118.429516</v>
       </c>
       <c r="I24">
-        <v>0.5383873697147804</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="J24">
-        <v>0.5383873697147805</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>62.4849</v>
+        <v>101.4555613333333</v>
       </c>
       <c r="N24">
-        <v>187.4547</v>
+        <v>304.366684</v>
       </c>
       <c r="O24">
-        <v>0.3392015343967147</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="P24">
-        <v>0.3392015343967146</v>
+        <v>0.4668465309523581</v>
       </c>
       <c r="Q24">
-        <v>5244.5468612772</v>
+        <v>4005.111008071661</v>
       </c>
       <c r="R24">
-        <v>47200.9217514948</v>
+        <v>36045.99907264495</v>
       </c>
       <c r="S24">
-        <v>0.1826218219070648</v>
+        <v>0.1740459549602593</v>
       </c>
       <c r="T24">
-        <v>0.1826218219070648</v>
+        <v>0.1740459549602593</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>83.93302799999999</v>
+        <v>39.47650533333334</v>
       </c>
       <c r="H25">
-        <v>251.799084</v>
+        <v>118.429516</v>
       </c>
       <c r="I25">
-        <v>0.5383873697147804</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="J25">
-        <v>0.5383873697147805</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.984323333333333</v>
+        <v>2.410466333333333</v>
       </c>
       <c r="N25">
-        <v>5.952970000000001</v>
+        <v>7.231399000000001</v>
       </c>
       <c r="O25">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="P25">
-        <v>0.01077197081864371</v>
+        <v>0.01109173150200089</v>
       </c>
       <c r="Q25">
-        <v>166.55026589772</v>
+        <v>95.15678706365378</v>
       </c>
       <c r="R25">
-        <v>1498.95239307948</v>
+        <v>856.4110835728841</v>
       </c>
       <c r="S25">
-        <v>0.005799493035693955</v>
+        <v>0.004135129798416651</v>
       </c>
       <c r="T25">
-        <v>0.005799493035693956</v>
+        <v>0.004135129798416651</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>83.93302799999999</v>
+        <v>39.47650533333334</v>
       </c>
       <c r="H26">
-        <v>251.799084</v>
+        <v>118.429516</v>
       </c>
       <c r="I26">
-        <v>0.5383873697147804</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="J26">
-        <v>0.5383873697147805</v>
+        <v>0.3728119273055513</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.42181166666667</v>
+        <v>83.95738966666666</v>
       </c>
       <c r="N26">
-        <v>283.265435</v>
+        <v>251.872169</v>
       </c>
       <c r="O26">
-        <v>0.512572211811989</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="P26">
-        <v>0.5125722118119889</v>
+        <v>0.386328906947963</v>
       </c>
       <c r="Q26">
-        <v>7925.10856242906</v>
+        <v>3314.344340948911</v>
       </c>
       <c r="R26">
-        <v>71325.97706186154</v>
+        <v>29829.0990685402</v>
       </c>
       <c r="S26">
-        <v>0.275962404906344</v>
+        <v>0.1440280243731171</v>
       </c>
       <c r="T26">
-        <v>0.275962404906344</v>
+        <v>0.1440280243731171</v>
       </c>
     </row>
   </sheetData>
